--- a/mertide.xlsx
+++ b/mertide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="60" windowWidth="22860" windowHeight="19260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7060" yWindow="60" windowWidth="23420" windowHeight="18220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Numerator</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Disaggregated by Age, Sex and HIV Status</t>
   </si>
   <si>
-    <t>HIV Status (Inc Undisclosed), Age &amp; Sex</t>
-  </si>
-  <si>
     <t>TA-SDI: HTC_TST</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>TA-SDI: OVC_KNOWN</t>
   </si>
   <si>
-    <t>DSD: HTC_CURR</t>
-  </si>
-  <si>
     <t>Number of adults and children currently receiving antiretroviral therapy (ART)</t>
   </si>
   <si>
@@ -167,6 +161,15 @@
   </si>
   <si>
     <t>TODO: Convert to Data Element (derive cat combo)</t>
+  </si>
+  <si>
+    <t>HTC_TST_N_TA</t>
+  </si>
+  <si>
+    <t>OVC_KNOWN_N_TA</t>
+  </si>
+  <si>
+    <t>TA-SDI: HTC_CURR</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -274,6 +277,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -298,7 +303,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -337,6 +342,8 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -689,10 +696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -720,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -769,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -794,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -805,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -835,7 +842,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -862,16 +869,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
@@ -881,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -906,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -922,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -947,7 +951,7 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -958,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -988,28 +992,34 @@
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1017,82 +1027,82 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9090</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="3">
-        <v>9090</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1101,37 +1111,37 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="3">
+        <v>909090</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="3">
-        <v>909090</v>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1139,21 +1149,10 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
